--- a/data/pca/factorExposure/factorExposure_2017-04-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02239238199067274</v>
+        <v>0.009932538891366093</v>
       </c>
       <c r="C2">
-        <v>0.009050579947375478</v>
+        <v>-0.04259305120861833</v>
       </c>
       <c r="D2">
-        <v>-0.03135234962956349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02943057772614288</v>
+      </c>
+      <c r="E2">
+        <v>0.03647724686088233</v>
+      </c>
+      <c r="F2">
+        <v>-0.009233263792329796</v>
+      </c>
+      <c r="G2">
+        <v>0.09519776582964441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02014490514280781</v>
+        <v>0.04129611259809116</v>
       </c>
       <c r="C3">
-        <v>-0.01228977759942907</v>
+        <v>-0.101859187374909</v>
       </c>
       <c r="D3">
-        <v>-0.105621357844077</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01789711156940171</v>
+      </c>
+      <c r="E3">
+        <v>0.1010854108318649</v>
+      </c>
+      <c r="F3">
+        <v>-0.003906312674410149</v>
+      </c>
+      <c r="G3">
+        <v>0.1691292450005527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02501858751476293</v>
+        <v>0.05595852854175184</v>
       </c>
       <c r="C4">
-        <v>0.003104773945337912</v>
+        <v>-0.06779327236983528</v>
       </c>
       <c r="D4">
-        <v>-0.08416408964240323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0244155169257428</v>
+      </c>
+      <c r="E4">
+        <v>0.03149257397816074</v>
+      </c>
+      <c r="F4">
+        <v>-0.01096882072933003</v>
+      </c>
+      <c r="G4">
+        <v>0.09987150058924534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01090259590660701</v>
+        <v>0.03649329972592403</v>
       </c>
       <c r="C6">
-        <v>0.01184111743845011</v>
+        <v>-0.05203373448360078</v>
       </c>
       <c r="D6">
-        <v>-0.08190962643050645</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01712347037801993</v>
+      </c>
+      <c r="E6">
+        <v>0.03664177327860985</v>
+      </c>
+      <c r="F6">
+        <v>-0.009104827960231243</v>
+      </c>
+      <c r="G6">
+        <v>0.08319525392007469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.006353533579377055</v>
+        <v>0.02087936660515313</v>
       </c>
       <c r="C7">
-        <v>0.01141128550434641</v>
+        <v>-0.03955345936464261</v>
       </c>
       <c r="D7">
-        <v>-0.03435359855910276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01395862940770512</v>
+      </c>
+      <c r="E7">
+        <v>0.006132780855790626</v>
+      </c>
+      <c r="F7">
+        <v>0.003337348105820801</v>
+      </c>
+      <c r="G7">
+        <v>0.1212813741002403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0004242611098176366</v>
+        <v>0.003841187505933207</v>
       </c>
       <c r="C8">
-        <v>0.000890248733874562</v>
+        <v>-0.02436718223982624</v>
       </c>
       <c r="D8">
-        <v>-0.0005484422060410267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003870928792193727</v>
+      </c>
+      <c r="E8">
+        <v>0.02802156149027307</v>
+      </c>
+      <c r="F8">
+        <v>-0.006730665822783431</v>
+      </c>
+      <c r="G8">
+        <v>0.06922431504903279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01721648079383661</v>
+        <v>0.03373916615873023</v>
       </c>
       <c r="C9">
-        <v>0.0001370631375927384</v>
+        <v>-0.05083132993229903</v>
       </c>
       <c r="D9">
-        <v>-0.06512491921970782</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01648618116330905</v>
+      </c>
+      <c r="E9">
+        <v>0.0217094637345027</v>
+      </c>
+      <c r="F9">
+        <v>-0.006985179083647176</v>
+      </c>
+      <c r="G9">
+        <v>0.1004430010322242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.09571013515642288</v>
+        <v>0.09862058084809611</v>
       </c>
       <c r="C10">
-        <v>-0.160366400377098</v>
+        <v>0.1830870657715046</v>
       </c>
       <c r="D10">
-        <v>0.09763351535320984</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01532812682359094</v>
+      </c>
+      <c r="E10">
+        <v>0.01904886196979156</v>
+      </c>
+      <c r="F10">
+        <v>0.02251465443376993</v>
+      </c>
+      <c r="G10">
+        <v>0.05864506319608805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0002632644503536063</v>
+        <v>0.03429875604119121</v>
       </c>
       <c r="C11">
-        <v>0.001538971315027617</v>
+        <v>-0.05405866953173302</v>
       </c>
       <c r="D11">
-        <v>-0.05540757136930402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002544785148019005</v>
+      </c>
+      <c r="E11">
+        <v>0.01833808844746087</v>
+      </c>
+      <c r="F11">
+        <v>-0.02103371506673153</v>
+      </c>
+      <c r="G11">
+        <v>0.09120985515205854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.004047945290818624</v>
+        <v>0.03583707647754851</v>
       </c>
       <c r="C12">
-        <v>0.004218794646278444</v>
+        <v>-0.04895831827140123</v>
       </c>
       <c r="D12">
-        <v>-0.04860923708746052</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006575692119322876</v>
+      </c>
+      <c r="E12">
+        <v>0.009577665516847855</v>
+      </c>
+      <c r="F12">
+        <v>-0.002257322231006294</v>
+      </c>
+      <c r="G12">
+        <v>0.08311980955974904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02321658929665981</v>
+        <v>0.01556654169525354</v>
       </c>
       <c r="C13">
-        <v>0.003442422543956561</v>
+        <v>-0.04212787011698233</v>
       </c>
       <c r="D13">
-        <v>-0.04002001601802672</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02648370865951413</v>
+      </c>
+      <c r="E13">
+        <v>0.03707217703705606</v>
+      </c>
+      <c r="F13">
+        <v>-0.005767850051930042</v>
+      </c>
+      <c r="G13">
+        <v>0.1366946079635658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007018831067769446</v>
+        <v>0.00826957118888192</v>
       </c>
       <c r="C14">
-        <v>0.001947560105942858</v>
+        <v>-0.02939943747303651</v>
       </c>
       <c r="D14">
-        <v>-0.01736161152094994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01012683125121921</v>
+      </c>
+      <c r="E14">
+        <v>0.006644707188720443</v>
+      </c>
+      <c r="F14">
+        <v>0.006700516748800372</v>
+      </c>
+      <c r="G14">
+        <v>0.1030736138187863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.002899926937474859</v>
+        <v>0.03282090865892628</v>
       </c>
       <c r="C16">
-        <v>-0.003027987448073917</v>
+        <v>-0.04705627371322925</v>
       </c>
       <c r="D16">
-        <v>-0.042787986113883</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002036915343935927</v>
+      </c>
+      <c r="E16">
+        <v>0.01580821892655627</v>
+      </c>
+      <c r="F16">
+        <v>-0.002345413569248228</v>
+      </c>
+      <c r="G16">
+        <v>0.09253179574600023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01206607910292917</v>
+        <v>0.022079871175199</v>
       </c>
       <c r="C19">
-        <v>0.005122381359420227</v>
+        <v>-0.0523584721528552</v>
       </c>
       <c r="D19">
-        <v>-0.0441091596813529</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01890095534065043</v>
+      </c>
+      <c r="E19">
+        <v>0.07663379654159323</v>
+      </c>
+      <c r="F19">
+        <v>-0.02113608894492799</v>
+      </c>
+      <c r="G19">
+        <v>0.1335326223349085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.007539482004211694</v>
+        <v>0.01481400630696746</v>
       </c>
       <c r="C20">
-        <v>0.008129192337899658</v>
+        <v>-0.04182533489317078</v>
       </c>
       <c r="D20">
-        <v>-0.03644512261530672</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01431814726889359</v>
+      </c>
+      <c r="E20">
+        <v>0.03708219445401216</v>
+      </c>
+      <c r="F20">
+        <v>0.01153669108323363</v>
+      </c>
+      <c r="G20">
+        <v>0.1107475912288528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01640476395163944</v>
+        <v>0.01242047007932209</v>
       </c>
       <c r="C21">
-        <v>-0.001339353768467213</v>
+        <v>-0.03928435331674816</v>
       </c>
       <c r="D21">
-        <v>-0.03017697781689236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01889458615312253</v>
+      </c>
+      <c r="E21">
+        <v>0.05023339101342542</v>
+      </c>
+      <c r="F21">
+        <v>-0.001657926082262164</v>
+      </c>
+      <c r="G21">
+        <v>0.1291429646889528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001412110325683561</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.00019930641030913</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.000605177096075945</v>
+      </c>
+      <c r="E22">
+        <v>0.00356385258951876</v>
+      </c>
+      <c r="F22">
+        <v>-0.001763480999772959</v>
+      </c>
+      <c r="G22">
+        <v>0.005649628706029122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001417640353922879</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0002110001333315168</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0006039711694729046</v>
+      </c>
+      <c r="E23">
+        <v>0.003551120355589318</v>
+      </c>
+      <c r="F23">
+        <v>-0.0017687554020233</v>
+      </c>
+      <c r="G23">
+        <v>0.005540694506230934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0006250498426497307</v>
+        <v>0.0282210353134733</v>
       </c>
       <c r="C24">
-        <v>0.009141703224851775</v>
+        <v>-0.05166744143725795</v>
       </c>
       <c r="D24">
-        <v>-0.0476085451948953</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007326962851807832</v>
+      </c>
+      <c r="E24">
+        <v>0.01296515552848092</v>
+      </c>
+      <c r="F24">
+        <v>-0.01265393581278397</v>
+      </c>
+      <c r="G24">
+        <v>0.09216321784952278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01475287976348796</v>
+        <v>0.04238957548799092</v>
       </c>
       <c r="C25">
-        <v>-0.003378353202445838</v>
+        <v>-0.05893554370863717</v>
       </c>
       <c r="D25">
-        <v>-0.05973283425999894</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01127025874192978</v>
+      </c>
+      <c r="E25">
+        <v>0.004369941359201568</v>
+      </c>
+      <c r="F25">
+        <v>-0.006604470032237671</v>
+      </c>
+      <c r="G25">
+        <v>0.100370644929212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02071991357940341</v>
+        <v>0.01343785282358668</v>
       </c>
       <c r="C26">
-        <v>0.00878620418699238</v>
+        <v>-0.01230445898830761</v>
       </c>
       <c r="D26">
-        <v>-0.001318687969373924</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02426410557573939</v>
+      </c>
+      <c r="E26">
+        <v>0.009614179966759529</v>
+      </c>
+      <c r="F26">
+        <v>0.008332325655628284</v>
+      </c>
+      <c r="G26">
+        <v>0.08136069465472831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1374841726429533</v>
+        <v>0.1245375691484903</v>
       </c>
       <c r="C28">
-        <v>-0.2028980451184771</v>
+        <v>0.2382342517257351</v>
       </c>
       <c r="D28">
-        <v>0.1210462861644124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006336398385564162</v>
+      </c>
+      <c r="E28">
+        <v>0.007797036121571304</v>
+      </c>
+      <c r="F28">
+        <v>0.01524574412003204</v>
+      </c>
+      <c r="G28">
+        <v>0.04452288077671393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.0110223710611456</v>
+        <v>0.008975947911468125</v>
       </c>
       <c r="C29">
-        <v>-0.004947848524344866</v>
+        <v>-0.02312448860912364</v>
       </c>
       <c r="D29">
-        <v>-0.01846717520904982</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009161189710383101</v>
+      </c>
+      <c r="E29">
+        <v>0.003323921970152016</v>
+      </c>
+      <c r="F29">
+        <v>0.01449305490904481</v>
+      </c>
+      <c r="G29">
+        <v>0.0953013324994415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01775831463439456</v>
+        <v>0.04111156000003445</v>
       </c>
       <c r="C30">
-        <v>0.01786055177127391</v>
+        <v>-0.07098570480318778</v>
       </c>
       <c r="D30">
-        <v>-0.1041436827864688</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02916349347804018</v>
+      </c>
+      <c r="E30">
+        <v>0.06084007460839264</v>
+      </c>
+      <c r="F30">
+        <v>-0.04649218017917017</v>
+      </c>
+      <c r="G30">
+        <v>0.1299599832160074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01896381778330622</v>
+        <v>0.05328469798837565</v>
       </c>
       <c r="C31">
-        <v>-0.02053224384316559</v>
+        <v>-0.03727806232549663</v>
       </c>
       <c r="D31">
-        <v>-0.03354136592970404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003732527986924911</v>
+      </c>
+      <c r="E31">
+        <v>9.718893032125815e-05</v>
+      </c>
+      <c r="F31">
+        <v>0.04102722962001326</v>
+      </c>
+      <c r="G31">
+        <v>0.09952787377775094</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-6.877829254825012e-05</v>
+        <v>0.002605601984905719</v>
       </c>
       <c r="C32">
-        <v>-0.01554184918011852</v>
+        <v>-0.02401441423731887</v>
       </c>
       <c r="D32">
-        <v>-0.00464264946703231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.003033298344829427</v>
+      </c>
+      <c r="E32">
+        <v>0.03340246262075527</v>
+      </c>
+      <c r="F32">
+        <v>-0.04220935250524006</v>
+      </c>
+      <c r="G32">
+        <v>0.0822932145477319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01173216740085326</v>
+        <v>0.02789607932216587</v>
       </c>
       <c r="C33">
-        <v>0.002750236186524006</v>
+        <v>-0.05076607281917103</v>
       </c>
       <c r="D33">
-        <v>-0.0445147213285023</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01577914785732052</v>
+      </c>
+      <c r="E33">
+        <v>0.04387855862121301</v>
+      </c>
+      <c r="F33">
+        <v>-0.01596903154684155</v>
+      </c>
+      <c r="G33">
+        <v>0.1614274317142373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.001595755534842221</v>
+        <v>0.0397635580477419</v>
       </c>
       <c r="C34">
-        <v>-0.01276270618217458</v>
+        <v>-0.0600623398580425</v>
       </c>
       <c r="D34">
-        <v>-0.05852799809898734</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004441002785960004</v>
+      </c>
+      <c r="E34">
+        <v>0.00814962963069471</v>
+      </c>
+      <c r="F34">
+        <v>-0.02116259106578291</v>
+      </c>
+      <c r="G34">
+        <v>0.09478120776154265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01608328484279455</v>
+        <v>0.01608990943842244</v>
       </c>
       <c r="C36">
-        <v>-0.005447327531844504</v>
+        <v>-0.009811109742527559</v>
       </c>
       <c r="D36">
-        <v>-0.006024559028696062</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01251183278052558</v>
+      </c>
+      <c r="E36">
+        <v>0.008186250363106927</v>
+      </c>
+      <c r="F36">
+        <v>0.006976078738138361</v>
+      </c>
+      <c r="G36">
+        <v>0.09062621491768003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.007560336855762991</v>
+        <v>0.03123500621901885</v>
       </c>
       <c r="C38">
-        <v>-0.02509459087355067</v>
+        <v>-0.03071773694273101</v>
       </c>
       <c r="D38">
-        <v>-0.04371120759667766</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.00734882497621779</v>
+      </c>
+      <c r="E38">
+        <v>0.007161543246218168</v>
+      </c>
+      <c r="F38">
+        <v>0.01803353128233584</v>
+      </c>
+      <c r="G38">
+        <v>0.08755827629368414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005670032203123116</v>
+        <v>0.03626806431693966</v>
       </c>
       <c r="C39">
-        <v>0.02604071515786097</v>
+        <v>-0.08095718026583347</v>
       </c>
       <c r="D39">
-        <v>-0.1026149729618498</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01176240375664733</v>
+      </c>
+      <c r="E39">
+        <v>0.02939640191435351</v>
+      </c>
+      <c r="F39">
+        <v>-0.02388553743040321</v>
+      </c>
+      <c r="G39">
+        <v>0.08892359901006906</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0149073082333601</v>
+        <v>0.01366406499656928</v>
       </c>
       <c r="C40">
-        <v>-0.003432371369151084</v>
+        <v>-0.04030517321786107</v>
       </c>
       <c r="D40">
-        <v>-0.04018642516470612</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01486497322146048</v>
+      </c>
+      <c r="E40">
+        <v>0.03231306654603115</v>
+      </c>
+      <c r="F40">
+        <v>0.007343009253422984</v>
+      </c>
+      <c r="G40">
+        <v>0.1170601448873767</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01368316734816005</v>
+        <v>0.02063670026824995</v>
       </c>
       <c r="C41">
-        <v>-0.01571290010271566</v>
+        <v>-0.002469989052847304</v>
       </c>
       <c r="D41">
-        <v>0.01098946925123607</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004425583182814458</v>
+      </c>
+      <c r="E41">
+        <v>0.007311263515803251</v>
+      </c>
+      <c r="F41">
+        <v>0.01527143113103913</v>
+      </c>
+      <c r="G41">
+        <v>0.08539645433684744</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.06798802558471213</v>
+        <v>0.009144293335977429</v>
       </c>
       <c r="C42">
-        <v>0.06917269428303661</v>
+        <v>-0.03633427937602011</v>
       </c>
       <c r="D42">
-        <v>-0.1719672355070702</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08984674556322678</v>
+      </c>
+      <c r="E42">
+        <v>0.01986449274176419</v>
+      </c>
+      <c r="F42">
+        <v>0.0483557930833118</v>
+      </c>
+      <c r="G42">
+        <v>-0.04011011395582251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01386939805982055</v>
+        <v>0.0353358513561015</v>
       </c>
       <c r="C43">
-        <v>-0.01453864032854388</v>
+        <v>-0.01862912048917552</v>
       </c>
       <c r="D43">
-        <v>0.005897333088567629</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005877914559442069</v>
+      </c>
+      <c r="E43">
+        <v>0.02154861702302649</v>
+      </c>
+      <c r="F43">
+        <v>0.006455458889982997</v>
+      </c>
+      <c r="G43">
+        <v>0.120999516420197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002667155519607856</v>
+        <v>0.01341523958085752</v>
       </c>
       <c r="C44">
-        <v>0.001475703303661942</v>
+        <v>-0.05903399193895618</v>
       </c>
       <c r="D44">
-        <v>-0.05606906135660282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.00699874754854622</v>
+      </c>
+      <c r="E44">
+        <v>0.02454408519195592</v>
+      </c>
+      <c r="F44">
+        <v>0.003144027535353059</v>
+      </c>
+      <c r="G44">
+        <v>0.1117682027497807</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01156658331483988</v>
+        <v>0.007992362644895735</v>
       </c>
       <c r="C46">
-        <v>-0.0003845556697820686</v>
+        <v>-0.01447935206109659</v>
       </c>
       <c r="D46">
-        <v>0.004406335603145187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01263411481707612</v>
+      </c>
+      <c r="E46">
+        <v>0.001421258989357465</v>
+      </c>
+      <c r="F46">
+        <v>0.01430432988751454</v>
+      </c>
+      <c r="G46">
+        <v>0.1047522888617879</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.01340464300176211</v>
+        <v>0.07714647673966454</v>
       </c>
       <c r="C47">
-        <v>-0.02376890324228986</v>
+        <v>-0.06860663338830231</v>
       </c>
       <c r="D47">
-        <v>-0.07314030776608615</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.00485069827248535</v>
+      </c>
+      <c r="E47">
+        <v>-0.006310564601385841</v>
+      </c>
+      <c r="F47">
+        <v>0.05383887308760144</v>
+      </c>
+      <c r="G47">
+        <v>0.08485429248496595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.008604272755238486</v>
+        <v>0.01865242488310936</v>
       </c>
       <c r="C48">
-        <v>-0.01119574556585828</v>
+        <v>-0.01300157744140566</v>
       </c>
       <c r="D48">
-        <v>-0.01946945297205104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002240634234674583</v>
+      </c>
+      <c r="E48">
+        <v>0.004495454142171021</v>
+      </c>
+      <c r="F48">
+        <v>0.01827885586020583</v>
+      </c>
+      <c r="G48">
+        <v>0.09623915848360325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.02123994238789078</v>
+        <v>0.07569071652111239</v>
       </c>
       <c r="C50">
-        <v>-0.03274062413912096</v>
+        <v>-0.07183388781897244</v>
       </c>
       <c r="D50">
-        <v>-0.07076301156265949</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002258019225776198</v>
+      </c>
+      <c r="E50">
+        <v>-0.003094755570411488</v>
+      </c>
+      <c r="F50">
+        <v>0.05668178666875432</v>
+      </c>
+      <c r="G50">
+        <v>0.09393663262384826</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008753968120665697</v>
+        <v>0.01467438013804607</v>
       </c>
       <c r="C51">
-        <v>-0.002844618233724437</v>
+        <v>-0.03598155379727122</v>
       </c>
       <c r="D51">
-        <v>-0.01833141168429064</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0106492592022935</v>
+      </c>
+      <c r="E51">
+        <v>0.02569417168880201</v>
+      </c>
+      <c r="F51">
+        <v>-0.02546253455683547</v>
+      </c>
+      <c r="G51">
+        <v>0.1228939635577341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.02261203230769299</v>
+        <v>0.08196466962021584</v>
       </c>
       <c r="C53">
-        <v>-0.03367593643644654</v>
+        <v>-0.08540099502147595</v>
       </c>
       <c r="D53">
-        <v>-0.1342470755312397</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00347738624075537</v>
+      </c>
+      <c r="E53">
+        <v>-0.02561469367807972</v>
+      </c>
+      <c r="F53">
+        <v>0.06365675560462868</v>
+      </c>
+      <c r="G53">
+        <v>0.09410927226097475</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01232715009670084</v>
+        <v>0.03209842782976961</v>
       </c>
       <c r="C54">
-        <v>-0.02544966923466277</v>
+        <v>-0.01892119221540334</v>
       </c>
       <c r="D54">
-        <v>0.004884607945322032</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.00148139219029848</v>
+      </c>
+      <c r="E54">
+        <v>0.01777892543767275</v>
+      </c>
+      <c r="F54">
+        <v>0.005038687411993619</v>
+      </c>
+      <c r="G54">
+        <v>0.1078131833585412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0127603731649736</v>
+        <v>0.07237698961982442</v>
       </c>
       <c r="C55">
-        <v>-0.02053494465857572</v>
+        <v>-0.06845094627464764</v>
       </c>
       <c r="D55">
-        <v>-0.1060966870914054</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.004979772821684878</v>
+      </c>
+      <c r="E55">
+        <v>-0.02316904716996562</v>
+      </c>
+      <c r="F55">
+        <v>0.06369465147316294</v>
+      </c>
+      <c r="G55">
+        <v>0.07181568141409736</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.02439880089810539</v>
+        <v>0.1367904996673134</v>
       </c>
       <c r="C56">
-        <v>-0.04358414698709976</v>
+        <v>-0.1075425997551321</v>
       </c>
       <c r="D56">
-        <v>-0.1606418534036047</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01242010003740771</v>
+      </c>
+      <c r="E56">
+        <v>-0.03265923394465583</v>
+      </c>
+      <c r="F56">
+        <v>0.08082656995284396</v>
+      </c>
+      <c r="G56">
+        <v>0.04678382386539362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02269663301096516</v>
+        <v>0.005414073841344502</v>
       </c>
       <c r="C57">
-        <v>0.007278395320225486</v>
+        <v>-0.007565320496577293</v>
       </c>
       <c r="D57">
-        <v>-0.03631563988585489</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02328783773481464</v>
+      </c>
+      <c r="E57">
+        <v>0.02586207769637399</v>
+      </c>
+      <c r="F57">
+        <v>-0.01002853078204438</v>
+      </c>
+      <c r="G57">
+        <v>0.02638005620894292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01540888529194022</v>
+        <v>0.05269577127053008</v>
       </c>
       <c r="C58">
-        <v>-0.01998344752643013</v>
+        <v>-0.04825450774155994</v>
       </c>
       <c r="D58">
-        <v>-0.1439780302952301</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02058568080873836</v>
+      </c>
+      <c r="E58">
+        <v>0.9121738828198029</v>
+      </c>
+      <c r="F58">
+        <v>0.2774829039767647</v>
+      </c>
+      <c r="G58">
+        <v>-0.2211506204028195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1474079155941451</v>
+        <v>0.1596775486359149</v>
       </c>
       <c r="C59">
-        <v>-0.2268135315105186</v>
+        <v>0.2047601245486443</v>
       </c>
       <c r="D59">
-        <v>0.103275693993909</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01160018509432415</v>
+      </c>
+      <c r="E59">
+        <v>0.01915722721359145</v>
+      </c>
+      <c r="F59">
+        <v>0.003265770190413168</v>
+      </c>
+      <c r="G59">
+        <v>0.03767988566759488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1237799824183134</v>
+        <v>0.2886028822824164</v>
       </c>
       <c r="C60">
-        <v>-0.1557797682893048</v>
+        <v>-0.1083575308722889</v>
       </c>
       <c r="D60">
-        <v>-0.1420594501718588</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01143686116984717</v>
+      </c>
+      <c r="E60">
+        <v>0.0005887572249327149</v>
+      </c>
+      <c r="F60">
+        <v>-0.3362631521099094</v>
+      </c>
+      <c r="G60">
+        <v>-0.1657596006584852</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002115529419617946</v>
+        <v>0.0390828609730979</v>
       </c>
       <c r="C61">
-        <v>0.003169704169662657</v>
+        <v>-0.06671591726996992</v>
       </c>
       <c r="D61">
-        <v>-0.0774922934190989</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005480846041077154</v>
+      </c>
+      <c r="E61">
+        <v>0.02369764531781372</v>
+      </c>
+      <c r="F61">
+        <v>-0.0145625680713957</v>
+      </c>
+      <c r="G61">
+        <v>0.095854890699411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.00694608114246724</v>
+        <v>0.01546030007552796</v>
       </c>
       <c r="C63">
-        <v>0.003484771001684353</v>
+        <v>-0.03047902479700039</v>
       </c>
       <c r="D63">
-        <v>-0.0246912188087357</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008559547994541063</v>
+      </c>
+      <c r="E63">
+        <v>0.003233753047516658</v>
+      </c>
+      <c r="F63">
+        <v>0.0190067946249672</v>
+      </c>
+      <c r="G63">
+        <v>0.09348869669774072</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02047412413044165</v>
+        <v>0.04875871965028603</v>
       </c>
       <c r="C64">
-        <v>-0.02141076754070844</v>
+        <v>-0.04710068224012375</v>
       </c>
       <c r="D64">
-        <v>-0.06309702793825192</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006472537599399971</v>
+      </c>
+      <c r="E64">
+        <v>0.008366099312588264</v>
+      </c>
+      <c r="F64">
+        <v>-0.007568841337359059</v>
+      </c>
+      <c r="G64">
+        <v>0.1023977199192067</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.02328911940011147</v>
+        <v>0.07503605017816983</v>
       </c>
       <c r="C65">
-        <v>-0.003612290201077873</v>
+        <v>-0.0584084701042487</v>
       </c>
       <c r="D65">
-        <v>-0.1119123089144647</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01669658752524524</v>
+      </c>
+      <c r="E65">
+        <v>0.03914243938652974</v>
+      </c>
+      <c r="F65">
+        <v>-0.03038275811869372</v>
+      </c>
+      <c r="G65">
+        <v>0.03945770639799075</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.003968395768454453</v>
+        <v>0.05133908402358157</v>
       </c>
       <c r="C66">
-        <v>0.02282991510014441</v>
+        <v>-0.1081137751142605</v>
       </c>
       <c r="D66">
-        <v>-0.1384693794847883</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01168951119111402</v>
+      </c>
+      <c r="E66">
+        <v>0.04079929756431695</v>
+      </c>
+      <c r="F66">
+        <v>-0.03578766746712965</v>
+      </c>
+      <c r="G66">
+        <v>0.1051705438875505</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.02115937664104603</v>
+        <v>0.05419489265942624</v>
       </c>
       <c r="C67">
-        <v>-0.03977031250112263</v>
+        <v>-0.03409658771948473</v>
       </c>
       <c r="D67">
-        <v>-0.06280380789337717</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005858877057576338</v>
+      </c>
+      <c r="E67">
+        <v>-0.0009505452874027548</v>
+      </c>
+      <c r="F67">
+        <v>0.01677814738575738</v>
+      </c>
+      <c r="G67">
+        <v>0.07655765820127249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1617943685257252</v>
+        <v>0.1555358115768032</v>
       </c>
       <c r="C68">
-        <v>-0.214421358794396</v>
+        <v>0.2684275529929545</v>
       </c>
       <c r="D68">
-        <v>0.1474851194393234</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005748278308408899</v>
+      </c>
+      <c r="E68">
+        <v>0.01314215402131538</v>
+      </c>
+      <c r="F68">
+        <v>0.03676851144391503</v>
+      </c>
+      <c r="G68">
+        <v>0.02898715131276155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.01696284450302488</v>
+        <v>0.08294207328528928</v>
       </c>
       <c r="C69">
-        <v>-0.03606757478832665</v>
+        <v>-0.07025674154106427</v>
       </c>
       <c r="D69">
-        <v>-0.08018228878542032</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008872612327100141</v>
+      </c>
+      <c r="E69">
+        <v>-0.02097075401810577</v>
+      </c>
+      <c r="F69">
+        <v>0.03640045627733691</v>
+      </c>
+      <c r="G69">
+        <v>0.103603501702419</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1278615515639204</v>
+        <v>0.1405366791422197</v>
       </c>
       <c r="C71">
-        <v>-0.1804126816503391</v>
+        <v>0.2298977307772208</v>
       </c>
       <c r="D71">
-        <v>0.102360227536842</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002788325967364217</v>
+      </c>
+      <c r="E71">
+        <v>0.03353328330032705</v>
+      </c>
+      <c r="F71">
+        <v>0.02245448662337122</v>
+      </c>
+      <c r="G71">
+        <v>0.06741417252219022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.006505892210395321</v>
+        <v>0.08595746661219308</v>
       </c>
       <c r="C72">
-        <v>-0.02003938582859107</v>
+        <v>-0.06783337303401703</v>
       </c>
       <c r="D72">
-        <v>-0.1005535456741209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008363019691937177</v>
+      </c>
+      <c r="E72">
+        <v>-0.006898576196277063</v>
+      </c>
+      <c r="F72">
+        <v>-0.0404846380436288</v>
+      </c>
+      <c r="G72">
+        <v>0.08993716620939729</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1493911707554819</v>
+        <v>0.3767063291459471</v>
       </c>
       <c r="C73">
-        <v>-0.1765423856619475</v>
+        <v>-0.1166274414191877</v>
       </c>
       <c r="D73">
-        <v>-0.2654204313711324</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02051304264435853</v>
+      </c>
+      <c r="E73">
+        <v>0.08223428233942635</v>
+      </c>
+      <c r="F73">
+        <v>-0.5740963838939651</v>
+      </c>
+      <c r="G73">
+        <v>-0.2994156627089289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.02440447776650017</v>
+        <v>0.1048091351102257</v>
       </c>
       <c r="C74">
-        <v>-0.04562938442769265</v>
+        <v>-0.1093419120729719</v>
       </c>
       <c r="D74">
-        <v>-0.1765671848246596</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009474577503937563</v>
+      </c>
+      <c r="E74">
+        <v>-0.00854831377924623</v>
+      </c>
+      <c r="F74">
+        <v>0.0691295818406555</v>
+      </c>
+      <c r="G74">
+        <v>0.08370333493239066</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.06074628372957031</v>
+        <v>0.2475661779747661</v>
       </c>
       <c r="C75">
-        <v>-0.1093524223400349</v>
+        <v>-0.1513583013514766</v>
       </c>
       <c r="D75">
-        <v>-0.2959169056887184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03073242219870443</v>
+      </c>
+      <c r="E75">
+        <v>-0.07031507547207162</v>
+      </c>
+      <c r="F75">
+        <v>0.1684929646314906</v>
+      </c>
+      <c r="G75">
+        <v>-0.01297282868967733</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.02647545327340667</v>
+        <v>0.1188030166564175</v>
       </c>
       <c r="C76">
-        <v>-0.05968628814145247</v>
+        <v>-0.1092475398828859</v>
       </c>
       <c r="D76">
-        <v>-0.2126321431007236</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01816176227178031</v>
+      </c>
+      <c r="E76">
+        <v>-0.02843859219414126</v>
+      </c>
+      <c r="F76">
+        <v>0.1070637561167533</v>
+      </c>
+      <c r="G76">
+        <v>0.06259496948760697</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01838038533694706</v>
+        <v>0.0684039642661191</v>
       </c>
       <c r="C77">
-        <v>-0.007644228074637576</v>
+        <v>-0.05953076435078897</v>
       </c>
       <c r="D77">
-        <v>-0.07354544936824743</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01106048289746355</v>
+      </c>
+      <c r="E77">
+        <v>0.04805565695706894</v>
+      </c>
+      <c r="F77">
+        <v>-0.01030258973276072</v>
+      </c>
+      <c r="G77">
+        <v>0.06707098906233531</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.009646580230030686</v>
+        <v>0.04296321066786309</v>
       </c>
       <c r="C78">
-        <v>-0.007329373908050212</v>
+        <v>-0.04952095874899531</v>
       </c>
       <c r="D78">
-        <v>-0.05963598035090242</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005881653353276533</v>
+      </c>
+      <c r="E78">
+        <v>0.02804343479389475</v>
+      </c>
+      <c r="F78">
+        <v>-0.03774417228326465</v>
+      </c>
+      <c r="G78">
+        <v>0.1028812261812777</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>5.151159853397266e-05</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0001184545928430238</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-1.449369466645069e-05</v>
+      </c>
+      <c r="E79">
+        <v>0.0002541648141732078</v>
+      </c>
+      <c r="F79">
+        <v>-0.0001882663784469405</v>
+      </c>
+      <c r="G79">
+        <v>0.0004408564235313918</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.02632054546059419</v>
+        <v>0.04318776062172416</v>
       </c>
       <c r="C80">
-        <v>-0.01817748697103107</v>
+        <v>-0.05151118549585934</v>
       </c>
       <c r="D80">
-        <v>-0.08486883150678405</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01326097364733285</v>
+      </c>
+      <c r="E80">
+        <v>0.02508697212257555</v>
+      </c>
+      <c r="F80">
+        <v>-0.01442836248612104</v>
+      </c>
+      <c r="G80">
+        <v>0.05352436748492026</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.03750838767441302</v>
+        <v>0.1370003764448771</v>
       </c>
       <c r="C81">
-        <v>-0.06526728252025255</v>
+        <v>-0.09540319167258668</v>
       </c>
       <c r="D81">
-        <v>-0.1683769107175329</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01489983995265934</v>
+      </c>
+      <c r="E81">
+        <v>-0.03573906874046318</v>
+      </c>
+      <c r="F81">
+        <v>0.1268747475581699</v>
+      </c>
+      <c r="G81">
+        <v>0.02548148520123463</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1334782124854905</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07864339154669113</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.009350298060666068</v>
+      </c>
+      <c r="E82">
+        <v>-0.1007850796774252</v>
+      </c>
+      <c r="F82">
+        <v>0.04969399011062656</v>
+      </c>
+      <c r="G82">
+        <v>0.07447318347506433</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01390792610783301</v>
+        <v>0.03611947776778845</v>
       </c>
       <c r="C83">
-        <v>-0.01338973820394725</v>
+        <v>-0.02914074088802734</v>
       </c>
       <c r="D83">
-        <v>-0.03365035968201571</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.005904402766090895</v>
+      </c>
+      <c r="E83">
+        <v>0.03116009350966211</v>
+      </c>
+      <c r="F83">
+        <v>-0.03022917408305362</v>
+      </c>
+      <c r="G83">
+        <v>0.05849244440853545</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.05893359013766203</v>
+        <v>0.2127687005528542</v>
       </c>
       <c r="C85">
-        <v>-0.08471575798992967</v>
+        <v>-0.1469546160273269</v>
       </c>
       <c r="D85">
-        <v>-0.2764661919811295</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01737173088487756</v>
+      </c>
+      <c r="E85">
+        <v>-0.1036694369594429</v>
+      </c>
+      <c r="F85">
+        <v>0.1216995913544005</v>
+      </c>
+      <c r="G85">
+        <v>-0.06020049365861427</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01400708229612502</v>
+        <v>0.01467456265014372</v>
       </c>
       <c r="C86">
-        <v>-0.01103343743583317</v>
+        <v>-0.02562284109329424</v>
       </c>
       <c r="D86">
-        <v>-0.05117685022661043</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01149332826084133</v>
+      </c>
+      <c r="E86">
+        <v>0.05043383701157251</v>
+      </c>
+      <c r="F86">
+        <v>-0.01844166403076715</v>
+      </c>
+      <c r="G86">
+        <v>0.1901329663187062</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.004183739772169457</v>
+        <v>0.02116970389262211</v>
       </c>
       <c r="C87">
-        <v>0.009404737887975847</v>
+        <v>-0.02241458781638147</v>
       </c>
       <c r="D87">
-        <v>-0.04785996827647507</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01189147666271853</v>
+      </c>
+      <c r="E87">
+        <v>0.09288872705398295</v>
+      </c>
+      <c r="F87">
+        <v>-0.008584235028558195</v>
+      </c>
+      <c r="G87">
+        <v>0.1214482100043722</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.03678304322293629</v>
+        <v>0.09449009681481926</v>
       </c>
       <c r="C88">
-        <v>-0.0139419957728243</v>
+        <v>-0.06893215822890508</v>
       </c>
       <c r="D88">
-        <v>-0.0549509183191761</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02210409549601356</v>
+      </c>
+      <c r="E88">
+        <v>-0.002087803363451717</v>
+      </c>
+      <c r="F88">
+        <v>0.01950611288617213</v>
+      </c>
+      <c r="G88">
+        <v>0.09744001732501702</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2355637329116613</v>
+        <v>0.2325928415100856</v>
       </c>
       <c r="C89">
-        <v>-0.3267774542301076</v>
+        <v>0.3686345461006117</v>
       </c>
       <c r="D89">
-        <v>0.1841227204559957</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>2.409654845255636e-05</v>
+      </c>
+      <c r="E89">
+        <v>-0.01631979847518739</v>
+      </c>
+      <c r="F89">
+        <v>0.02530568302184503</v>
+      </c>
+      <c r="G89">
+        <v>0.06987077003544111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1911965720168178</v>
+        <v>0.2080049885928379</v>
       </c>
       <c r="C90">
-        <v>-0.2708720869131503</v>
+        <v>0.3184686721592984</v>
       </c>
       <c r="D90">
-        <v>0.1666697959865943</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004298659611282252</v>
+      </c>
+      <c r="E90">
+        <v>0.001554102252855719</v>
+      </c>
+      <c r="F90">
+        <v>0.04695041806319606</v>
+      </c>
+      <c r="G90">
+        <v>0.05067833848951397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.05094305327265058</v>
+        <v>0.1856705801441175</v>
       </c>
       <c r="C91">
-        <v>-0.09540303186027414</v>
+        <v>-0.141986981128345</v>
       </c>
       <c r="D91">
-        <v>-0.2264829298355699</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02189181766946933</v>
+      </c>
+      <c r="E91">
+        <v>-0.06409986333616191</v>
+      </c>
+      <c r="F91">
+        <v>0.1416628689017748</v>
+      </c>
+      <c r="G91">
+        <v>0.03570719210578719</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.151645542865345</v>
+        <v>0.1983696181345194</v>
       </c>
       <c r="C92">
-        <v>-0.2673374342155738</v>
+        <v>0.2569586934005693</v>
       </c>
       <c r="D92">
-        <v>0.06900156881939631</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03766950688145448</v>
+      </c>
+      <c r="E92">
+        <v>0.04429114677688949</v>
+      </c>
+      <c r="F92">
+        <v>0.05784921537339417</v>
+      </c>
+      <c r="G92">
+        <v>0.1164895446458149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2004169166816563</v>
+        <v>0.2312295547506823</v>
       </c>
       <c r="C93">
-        <v>-0.2933701595008469</v>
+        <v>0.3142739996288293</v>
       </c>
       <c r="D93">
-        <v>0.1360503620414643</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01108884830307213</v>
+      </c>
+      <c r="E93">
+        <v>0.007227700599311103</v>
+      </c>
+      <c r="F93">
+        <v>0.04190458211523861</v>
+      </c>
+      <c r="G93">
+        <v>0.06016060543566484</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.09721003571550556</v>
+        <v>0.3193545772418274</v>
       </c>
       <c r="C94">
-        <v>-0.1283953263498341</v>
+        <v>-0.178587801810204</v>
       </c>
       <c r="D94">
-        <v>-0.2969620976709582</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01826618709515283</v>
+      </c>
+      <c r="E94">
+        <v>-0.2170113776016971</v>
+      </c>
+      <c r="F94">
+        <v>0.4775624491684585</v>
+      </c>
+      <c r="G94">
+        <v>-0.4197695202524771</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004830809538766525</v>
+        <v>0.1016407054441905</v>
       </c>
       <c r="C95">
-        <v>-0.007342253338261454</v>
+        <v>-0.08849706148821856</v>
       </c>
       <c r="D95">
-        <v>-0.1248453260878187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.01016155953218307</v>
+      </c>
+      <c r="E95">
+        <v>0.08348210946457124</v>
+      </c>
+      <c r="F95">
+        <v>-0.2047377060529902</v>
+      </c>
+      <c r="G95">
+        <v>-0.01251962055412805</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.07938059008905295</v>
+        <v>0.1957640099036423</v>
       </c>
       <c r="C98">
-        <v>-0.1381214292024189</v>
+        <v>-0.0438027238620391</v>
       </c>
       <c r="D98">
-        <v>-0.1512720350321726</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01354834406838339</v>
+      </c>
+      <c r="E98">
+        <v>0.07104575884261836</v>
+      </c>
+      <c r="F98">
+        <v>-0.2349925709206784</v>
+      </c>
+      <c r="G98">
+        <v>-0.01474641680287241</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01078163774891494</v>
+        <v>0.0087589281722399</v>
       </c>
       <c r="C101">
-        <v>-0.004869621670178088</v>
+        <v>-0.02315179879564866</v>
       </c>
       <c r="D101">
-        <v>-0.01842444302213291</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009004083233109384</v>
+      </c>
+      <c r="E101">
+        <v>0.003143264258593147</v>
+      </c>
+      <c r="F101">
+        <v>0.01545088613487598</v>
+      </c>
+      <c r="G101">
+        <v>0.09423325814575478</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.03703268849529119</v>
+        <v>0.1155492294051866</v>
       </c>
       <c r="C102">
-        <v>-0.04109217367347476</v>
+        <v>-0.08384051554076444</v>
       </c>
       <c r="D102">
-        <v>-0.1326796392543387</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.00107110179042652</v>
+      </c>
+      <c r="E102">
+        <v>-0.03582507525155073</v>
+      </c>
+      <c r="F102">
+        <v>0.03945209097465951</v>
+      </c>
+      <c r="G102">
+        <v>0.01612107773058254</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.8167569283524975</v>
+        <v>0.02112507290388614</v>
       </c>
       <c r="C104">
-        <v>0.5606268039430343</v>
+        <v>0.03019876993244671</v>
       </c>
       <c r="D104">
-        <v>0.03471186103000352</v>
+        <v>-0.9878585014658626</v>
+      </c>
+      <c r="E104">
+        <v>-0.04896163649605782</v>
+      </c>
+      <c r="F104">
+        <v>0.03400656301328292</v>
+      </c>
+      <c r="G104">
+        <v>-0.03654339227737705</v>
       </c>
     </row>
   </sheetData>
